--- a/data/Feb2024_BiannualReport_timelinedata_v2.xlsx
+++ b/data/Feb2024_BiannualReport_timelinedata_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeith\OneDrive - UBC\General\Injunction Analysis\injunction_timeline\code\v2_groupedByProjectXMeasure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeith\OneDrive - UBC\General\Injunction Analysis\injunction_timeline\code\WVSInjunctionAnalysis.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="14_{7D6727D7-3F04-447D-8B67-221CACB9789B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5042BB1-21CC-4A73-B7CE-2CB9529EEAC8}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="14_{7D6727D7-3F04-447D-8B67-221CACB9789B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC00D62F-AD1B-4A13-ABE9-2487BC386528}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6100" xr2:uid="{1FC0FC60-157D-43FC-B355-04EBFC986FAA}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>CGR</t>
   </si>
   <si>
-    <t>Some station service was required to ensure no loss of FRM capability; in mid-Nov, reservoir elevation refilled due to storm and refilled to 1515 feet (from target of 1505 ft)</t>
-  </si>
-  <si>
     <t>Night: RO/day: power gen.</t>
   </si>
   <si>
@@ -93,15 +90,9 @@
     <t>15a</t>
   </si>
   <si>
-    <t>Reservoir refill for temperature controls; limited outflow except through the ROs</t>
-  </si>
-  <si>
     <t>DET</t>
   </si>
   <si>
-    <t>10/IM5 Revised due to conflict with 10a/7; temperature operations prioritized over downstream FP</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -114,30 +105,15 @@
     <t>FCR</t>
   </si>
   <si>
-    <t>Concluded to improve likelihood of reservoir refilling sufficiently to operate the Fall Creek Adult Fish Facility</t>
-  </si>
-  <si>
     <t>Refill and operate AFF</t>
   </si>
   <si>
     <t>LOP</t>
   </si>
   <si>
-    <t>Ungated continuous surface spill operation (exception May 6-9 when turbines were used to pass high flows caused by rain)</t>
-  </si>
-  <si>
-    <t>Turbines used to pass high flows caused by high rain event</t>
-  </si>
-  <si>
-    <t>Turbines used to pass high inflows for four days continuously</t>
-  </si>
-  <si>
     <t>Spill gates replaced; nighttime spill operations</t>
   </si>
   <si>
-    <t>Nighttime spill operations concluded early due to downstream temperatures</t>
-  </si>
-  <si>
     <t>GPR</t>
   </si>
   <si>
@@ -156,21 +132,9 @@
     <t>24/7 spill operation</t>
   </si>
   <si>
-    <t>Nighttime spill using 3ft gate (daytime spill 50cfs RO); no power gen</t>
-  </si>
-  <si>
-    <t>24/7 spill operation; delay in start and extension of spill operation was to support release of bulk-marked fish that Cramer released into the reservoir in late May</t>
-  </si>
-  <si>
     <t>10/IM 5</t>
   </si>
   <si>
-    <t>Prepare for drawdown and prioritize non-turbine outlet during night</t>
-  </si>
-  <si>
-    <t>Limited success (hot/dry weather; low inflows/low resv elevations limit spillway operations to only 2 months instead of 4 which left lots of hot water; early drawdown and use of cold water storage in Detroit in the fall)</t>
-  </si>
-  <si>
     <t>Upper RO prioritization at night</t>
   </si>
   <si>
@@ -186,9 +150,6 @@
     <t>BCL</t>
   </si>
   <si>
-    <t>Only during one of two involuntary spill events in Nov/Dec 2021 was there sufficient flow to split across gates</t>
-  </si>
-  <si>
     <t>URO use for temp control</t>
   </si>
   <si>
@@ -207,39 +168,15 @@
     <t>10a/IM 7</t>
   </si>
   <si>
-    <t>Spillway + turbine to management downstream temperatures</t>
-  </si>
-  <si>
     <t>HCR</t>
   </si>
   <si>
-    <t>Prioritize ROs at night (daytime generation) when elevation below 1460 ft.</t>
-  </si>
-  <si>
-    <t>Deep drawdown (early due to RST showing movement from the reservoir)</t>
-  </si>
-  <si>
-    <t>Atmospheric river caused shift to flood risk management</t>
-  </si>
-  <si>
     <t>"Spill split where possible"; limited effect</t>
   </si>
   <si>
-    <t>Maximized efforts (maximized turbine operations and spreading spill) but did not prevent excessive TDG  in some periods when LRO and URO operated at Detroit</t>
-  </si>
-  <si>
-    <t>The large snowpack combined with late and unseasonably heavy rains observed in the spring of 2022 resulted in quite a successful spring passage operation that allowed for an extended delayed refill</t>
-  </si>
-  <si>
     <t>Further drawdown to 1520 ft</t>
   </si>
   <si>
-    <t>During Mid-Apr there were difficulties holding reservoir low (one turbine was out); WTCT opened to provide additional surface downstream passage</t>
-  </si>
-  <si>
-    <t>WCTC used for downstream temperature management and additional surface passage (in spring); stopped when elevation too low to operate WCTC</t>
-  </si>
-  <si>
     <t>Turbine use for temperature management</t>
   </si>
   <si>
@@ -252,9 +189,6 @@
     <t>Ungated continuous surface spill operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Prepare for measure 16 (deep drawdown); ROs opened </t>
-  </si>
-  <si>
     <t>ROs opened to cool downstream water temperatures</t>
   </si>
   <si>
@@ -264,15 +198,6 @@
     <t>Drawdown passage operations</t>
   </si>
   <si>
-    <t>Refilling of reservoir with high inflows (ending measure 16)</t>
-  </si>
-  <si>
-    <t>Due to repair work on turbines, RO operation begins early</t>
-  </si>
-  <si>
-    <t>Elevation below 1460 ft., turbines used during day and RO prioritization at night</t>
-  </si>
-  <si>
     <t>All flow to powerhouse due to Dec storm</t>
   </si>
   <si>
@@ -294,9 +219,6 @@
     <t>Reservoir used to capture inflows during rain events</t>
   </si>
   <si>
-    <t>Delayed refill; adverse consequences as reservoir did not fill enough</t>
-  </si>
-  <si>
     <t>Refill to 700 ft; otherwise delayed refill</t>
   </si>
   <si>
@@ -309,33 +231,21 @@
     <t>Second "injunction" deep drawdown</t>
   </si>
   <si>
-    <t>Reservoir refill but continue nighttime spill prioritization</t>
-  </si>
-  <si>
     <t>Summer fish weir operation</t>
   </si>
   <si>
-    <t>Gradual drawdown "just after labor day weekend" (estimated date)</t>
-  </si>
-  <si>
     <t>Nighttime spill and daytime generation</t>
   </si>
   <si>
     <t>Delayed refill and downstream FP</t>
   </si>
   <si>
-    <t>Reservoir refill but continued nighttime spill prioritization</t>
-  </si>
-  <si>
     <t>12b</t>
   </si>
   <si>
     <t>Maintain at low pool</t>
   </si>
   <si>
-    <t>Atmospheric river caused shift to flood risk management (subject to operational constraints (prioritizing return of Foster maximum authorized flood space; limiting Foster outflow to 10k cfs; limiting GPR outflow to 4500 cfs maximum for RST))</t>
-  </si>
-  <si>
     <t>Refill reservoir to minimum conservation</t>
   </si>
   <si>
@@ -352,6 +262,145 @@
   </si>
   <si>
     <t>injunction2</t>
+  </si>
+  <si>
+    <t>Only during one of two involuntary spill events in
+Nov/Dec 2021 was there sufficient flow to split 
+across gates</t>
+  </si>
+  <si>
+    <t>Maximized efforts (maximized turbine operations 
+and spreading spill) but did not prevent excessive 
+TDG  in some periods when LRO and URO 
+operated at Detroit</t>
+  </si>
+  <si>
+    <t>Some station service was required to ensure no loss 
+of FRM capability; in mid-Nov, reservoir elevation 
+refilled due to storm and refilled to 1515 feet 
+(from target of 1505 ft)</t>
+  </si>
+  <si>
+    <t>The large snowpack combined with late and un-
+seasonably heavy rains observed in the spring 
+of 2022 resulted in quite a successful spring 
+passage operation that allowed for an extended 
+delayed refill</t>
+  </si>
+  <si>
+    <t>During Mid-Apr there were difficulties holding 
+reservoir low (one turbine was out); WTCT opened 
+to provide additional surface downstream passage</t>
+  </si>
+  <si>
+    <t>Reservoir refill for temperature controls; limited 
+outflow except through the ROs</t>
+  </si>
+  <si>
+    <t>WCTC used for downstream temperature 
+management and additional surface passage 
+(in spring); stopped when elevation too low 
+to operate WCTC</t>
+  </si>
+  <si>
+    <t>Prepare for drawdown and prioritize non-turbine 
+outlet during night</t>
+  </si>
+  <si>
+    <t>Limited success (hot/dry weather; low inflows/low 
+reservoir elevations limit spillway operations to only 
+2 months instead of 4 which left lots of hot water; 
+early drawdown and use of cold water storage in 
+Detroit in the fall)</t>
+  </si>
+  <si>
+    <t>Spillway + turbine to management downstream 
+temperatures</t>
+  </si>
+  <si>
+    <t>10/IM5 Revised due to conflict with 10a/7; 
+temperature operations prioritized over 
+downstream FP</t>
+  </si>
+  <si>
+    <t>Atmospheric river; flood risk management</t>
+  </si>
+  <si>
+    <t>Deep drawdown (early due to RST showing 
+movement from the reservoir)</t>
+  </si>
+  <si>
+    <t>Concluded to improve likelihood of reservoir 
+refilling sufficiently to operate the Fall Creek AFF</t>
+  </si>
+  <si>
+    <t>Delayed refill; adverse consequences as reservoir 
+did not fill enough</t>
+  </si>
+  <si>
+    <t>Reservoir refill but continue nighttime spill 
+prioritization</t>
+  </si>
+  <si>
+    <t>Reservoir refill but continued nighttime spill 
+prioritization</t>
+  </si>
+  <si>
+    <t>Gradual drawdown "just after labor day weekend" 
+(estimated date)</t>
+  </si>
+  <si>
+    <t>Nighttime spill using 3ft gate (daytime spill 50cfs 
+RO); no power gen</t>
+  </si>
+  <si>
+    <t>24/7 spill operation; delay in start and extension of spill 
+operation was to support release of bulk-marked fish 
+that Cramer released into the reservoir in late May</t>
+  </si>
+  <si>
+    <t>Atmospheric river caused shift to flood risk management 
+(subject to operational constraints (prioritizing return 
+of FOS maximum authorized flood space; limiting 
+outflow to 10k cfs; limiting GPR outflow to 4500 
+cfs maximum for RST))</t>
+  </si>
+  <si>
+    <t>Prioritize ROs at night (daytime generation) when 
+elevation below 1460 ft.</t>
+  </si>
+  <si>
+    <t>Elevation below 1460 ft., turbines used during day 
+and RO prioritization at night</t>
+  </si>
+  <si>
+    <t>Due to repair work on turbines, RO operation begins 
+early</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare for measure 16 (deep drawdown); ROs 
+opened </t>
+  </si>
+  <si>
+    <t>Ungated continuous surface spill operation (exception 
+May 6-9 when turbines were used to pass high flows 
+caused by rain)</t>
+  </si>
+  <si>
+    <t>Nighttime spill operations concluded early due to 
+downstream temperatures</t>
+  </si>
+  <si>
+    <t>Turbines used to pass high flows caused by high 
+rain event</t>
+  </si>
+  <si>
+    <t>Turbines used to pass high inflows for four days 
+continuously</t>
+  </si>
+  <si>
+    <t>Refilling of reservoir with high inflows (ending measure 
+16)</t>
   </si>
 </sst>
 </file>
@@ -424,9 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -442,10 +488,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,21 +813,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB5777-2F29-4D60-842D-4D7DC08283A8}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" style="9" customWidth="1"/>
     <col min="2" max="3" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="5" max="5" width="44.90625" customWidth="1"/>
     <col min="6" max="6" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -800,9 +849,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3">
         <v>44517</v>
@@ -811,10 +860,10 @@
         <v>44524</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -825,7 +874,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3">
         <v>44562</v>
@@ -834,21 +883,21 @@
         <v>44926</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>44927</v>
@@ -857,10 +906,10 @@
         <v>45291</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -869,8 +918,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>14</v>
       </c>
       <c r="B5" s="3">
@@ -882,8 +931,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -892,8 +941,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>14</v>
       </c>
       <c r="B6" s="3">
@@ -905,18 +954,18 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
+      <c r="E6" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>14</v>
       </c>
       <c r="B7" s="3">
@@ -936,8 +985,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
+      <c r="A8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>44593</v>
@@ -957,8 +1006,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
+      <c r="A9" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>44958</v>
@@ -970,15 +1019,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
+    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>45015</v>
@@ -989,8 +1038,8 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>68</v>
+      <c r="E10" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -1000,8 +1049,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
+      <c r="A11" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>45000</v>
@@ -1013,18 +1062,18 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>106</v>
+      <c r="A12" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B12" s="3">
         <v>44682</v>
@@ -1036,18 +1085,18 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>106</v>
+      <c r="A13" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="3">
         <v>44696</v>
@@ -1059,18 +1108,18 @@
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>106</v>
+      <c r="A14" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="3">
         <v>45263</v>
@@ -1082,15 +1131,15 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
+      <c r="A15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>44552</v>
@@ -1101,8 +1150,8 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1113,7 +1162,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3">
         <v>44593</v>
@@ -1124,19 +1173,19 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3">
         <v>44708</v>
@@ -1148,18 +1197,18 @@
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3">
         <v>45071</v>
@@ -1170,19 +1219,19 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>69</v>
+      <c r="E18" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
         <v>44466</v>
@@ -1191,10 +1240,10 @@
         <v>44482</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1203,9 +1252,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3">
         <v>44482</v>
@@ -1214,13 +1263,13 @@
         <v>44505</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1228,7 +1277,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
         <v>44505</v>
@@ -1237,10 +1286,10 @@
         <v>44624</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1251,7 +1300,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>44843</v>
@@ -1260,10 +1309,10 @@
         <v>44867</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1274,7 +1323,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>44867</v>
@@ -1283,13 +1332,13 @@
         <v>44870</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1297,7 +1346,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>44870</v>
@@ -1306,10 +1355,10 @@
         <v>45030</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1320,7 +1369,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
         <v>44878</v>
@@ -1329,10 +1378,10 @@
         <v>44882</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1343,7 +1392,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>45197</v>
@@ -1352,7 +1401,7 @@
         <v>45255</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1363,7 +1412,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>45255</v>
@@ -1372,13 +1421,13 @@
         <v>45263</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1386,7 +1435,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>45263</v>
@@ -1395,7 +1444,7 @@
         <v>45291</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1406,7 +1455,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <v>44659</v>
@@ -1415,10 +1464,10 @@
         <v>44827</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1427,9 +1476,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>45047</v>
@@ -1438,10 +1487,10 @@
         <v>45152</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1450,9 +1499,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>104</v>
+    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="3">
         <v>44460</v>
@@ -1461,21 +1510,21 @@
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>104</v>
+      <c r="A32" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B32" s="3">
         <v>44882</v>
@@ -1484,21 +1533,21 @@
         <v>44882</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>106</v>
+      <c r="A33" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B33" s="3">
         <v>44870</v>
@@ -1507,21 +1556,21 @@
         <v>44882</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>106</v>
+      <c r="A34" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B34" s="3">
         <v>45263</v>
@@ -1530,13 +1579,13 @@
         <v>45280</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1544,7 +1593,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3">
         <v>44624</v>
@@ -1553,13 +1602,13 @@
         <v>44659</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1567,7 +1616,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3">
         <v>44958</v>
@@ -1576,19 +1625,19 @@
         <v>45047</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>19</v>
       </c>
@@ -1599,10 +1648,10 @@
         <v>44577</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1612,7 +1661,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>19</v>
       </c>
       <c r="B38" s="3">
@@ -1622,10 +1671,10 @@
         <v>44870</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1635,7 +1684,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>19</v>
       </c>
       <c r="B39" s="3">
@@ -1645,20 +1694,20 @@
         <v>44924</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>19</v>
       </c>
       <c r="B40" s="3">
@@ -1668,10 +1717,10 @@
         <v>45221</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1681,7 +1730,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>19</v>
       </c>
       <c r="B41" s="3">
@@ -1691,20 +1740,20 @@
         <v>45300</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
         <v>20</v>
       </c>
       <c r="B42" s="3">
@@ -1714,10 +1763,10 @@
         <v>44666</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1726,8 +1775,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="10">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>20</v>
       </c>
       <c r="B43" s="3">
@@ -1737,10 +1786,10 @@
         <v>45051</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
+        <v>24</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1750,8 +1799,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>106</v>
+      <c r="A44" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B44" s="3">
         <v>44924</v>
@@ -1760,13 +1809,13 @@
         <v>44927</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>87</v>
+        <v>24</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1774,7 +1823,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3">
         <v>44635</v>
@@ -1783,10 +1832,10 @@
         <v>44635</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -1797,7 +1846,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3">
         <v>44667</v>
@@ -1806,13 +1855,13 @@
         <v>44854</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -1820,7 +1869,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B47" s="3">
         <v>44944</v>
@@ -1829,10 +1878,10 @@
         <v>44944</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -1843,7 +1892,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3">
         <v>44998</v>
@@ -1852,10 +1901,10 @@
         <v>44998</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -1866,7 +1915,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B49" s="3">
         <v>45051</v>
@@ -1875,20 +1924,20 @@
         <v>45215</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="3">
@@ -1911,7 +1960,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="3">
@@ -1924,17 +1973,17 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="3">
@@ -1947,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1957,8 +2006,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>25</v>
+      <c r="A53" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B53" s="3">
         <v>44593</v>
@@ -1970,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1979,9 +2028,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>25</v>
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B54" s="3">
         <v>44697</v>
@@ -1992,19 +2041,19 @@
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
-        <v>25</v>
+      <c r="A55" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B55" s="3">
         <v>44728</v>
@@ -2016,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2026,8 +2075,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
-        <v>25</v>
+      <c r="A56" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B56" s="3">
         <v>44927</v>
@@ -2039,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2048,9 +2097,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>25</v>
+    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B57" s="3">
         <v>45061</v>
@@ -2061,19 +2110,19 @@
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
-        <v>98</v>
+      <c r="E57" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
-        <v>25</v>
+      <c r="A58" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B58" s="3">
         <v>45093</v>
@@ -2085,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2094,9 +2143,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3">
         <v>44810</v>
@@ -2107,19 +2156,19 @@
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3">
         <v>45174</v>
@@ -2130,18 +2179,18 @@
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>11</v>
       </c>
       <c r="B61" s="3">
@@ -2151,20 +2200,20 @@
         <v>44753</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>11</v>
       </c>
       <c r="B62" s="3">
@@ -2174,20 +2223,20 @@
         <v>44756</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>11</v>
       </c>
       <c r="B63" s="3">
@@ -2197,20 +2246,20 @@
         <v>44761</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>11</v>
       </c>
       <c r="B64" s="3">
@@ -2220,20 +2269,20 @@
         <v>44768</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>11</v>
       </c>
       <c r="B65" s="3">
@@ -2243,20 +2292,20 @@
         <v>45107</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>11</v>
       </c>
       <c r="B66" s="3">
@@ -2266,20 +2315,20 @@
         <v>45119</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>11</v>
       </c>
       <c r="B67" s="3">
@@ -2289,20 +2338,20 @@
         <v>45121</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>11</v>
       </c>
       <c r="B68" s="3">
@@ -2312,20 +2361,20 @@
         <v>45127</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <v>11</v>
       </c>
       <c r="B69" s="3">
@@ -2335,21 +2384,21 @@
         <v>45195</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
-        <v>40</v>
+      <c r="A70" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B70" s="3">
         <v>44637</v>
@@ -2358,10 +2407,10 @@
         <v>44653</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2370,9 +2419,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
-        <v>40</v>
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B71" s="3">
         <v>44653</v>
@@ -2381,21 +2430,21 @@
         <v>44666</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
-        <v>40</v>
+      <c r="A72" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B72" s="3">
         <v>44667</v>
@@ -2404,10 +2453,10 @@
         <v>44682</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2416,9 +2465,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
-        <v>40</v>
+    <row r="73" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B73" s="3">
         <v>44995</v>
@@ -2427,10 +2476,10 @@
         <v>45083</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2440,8 +2489,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>99</v>
+      <c r="A74" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>45143</v>
@@ -2450,10 +2499,10 @@
         <v>45232</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2463,8 +2512,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
-        <v>99</v>
+      <c r="A75" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B75" s="3">
         <v>45232</v>
@@ -2473,21 +2522,21 @@
         <v>45276</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
-        <v>106</v>
+    <row r="76" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B76" s="3">
         <v>45263</v>
@@ -2496,13 +2545,13 @@
         <v>45276</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2510,7 +2559,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>45276</v>
@@ -2519,19 +2568,19 @@
         <v>45291</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>8</v>
       </c>
@@ -2542,10 +2591,10 @@
         <v>44621</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2554,8 +2603,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="10">
+    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="9">
         <v>8</v>
       </c>
       <c r="B79" s="3">
@@ -2565,10 +2614,10 @@
         <v>44924</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2577,8 +2626,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="10">
+    <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="9">
         <v>8</v>
       </c>
       <c r="B80" s="3">
@@ -2588,20 +2637,20 @@
         <v>45028</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <v>8</v>
       </c>
       <c r="B81" s="3">
@@ -2611,10 +2660,10 @@
         <v>45263</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2623,8 +2672,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="10">
+    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
         <v>8</v>
       </c>
       <c r="B82" s="3">
@@ -2634,21 +2683,21 @@
         <v>45291</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3">
         <v>44756</v>
@@ -2657,21 +2706,21 @@
         <v>44883</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E83" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="10" t="s">
-        <v>106</v>
+      <c r="A84" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B84" s="3">
         <v>44924</v>
@@ -2680,21 +2729,21 @@
         <v>44927</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="10" t="s">
-        <v>106</v>
+      <c r="A85" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B85" s="3">
         <v>45263</v>
@@ -2703,20 +2752,20 @@
         <v>45280</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="10">
+    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="9">
         <v>16</v>
       </c>
       <c r="B86" s="3">
@@ -2726,10 +2775,10 @@
         <v>45120</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2739,7 +2788,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <v>16</v>
       </c>
       <c r="B87" s="3">
@@ -2749,20 +2798,20 @@
         <v>45276</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="9">
+    <row r="88" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="8">
         <v>17</v>
       </c>
       <c r="B88" s="3">
@@ -2772,10 +2821,10 @@
         <v>44704</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2785,7 +2834,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>17</v>
       </c>
       <c r="B89" s="3">
@@ -2795,20 +2844,20 @@
         <v>44722</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="9">
+    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="8">
         <v>17</v>
       </c>
       <c r="B90" s="3">
@@ -2818,10 +2867,10 @@
         <v>44762</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2831,7 +2880,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <v>17</v>
       </c>
       <c r="B91" s="3">
@@ -2841,20 +2890,20 @@
         <v>44800</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>17</v>
       </c>
       <c r="B92" s="3">
@@ -2864,10 +2913,10 @@
         <v>44841</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2877,7 +2926,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <v>17</v>
       </c>
       <c r="B93" s="3">
@@ -2887,10 +2936,10 @@
         <v>45065</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2900,7 +2949,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <v>17</v>
       </c>
       <c r="B94" s="3">
@@ -2910,21 +2959,21 @@
         <v>45078</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
-        <v>104</v>
+      <c r="A95" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B95" s="3">
         <v>44896</v>
@@ -2933,21 +2982,21 @@
         <v>44910</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="10" t="s">
-        <v>104</v>
+      <c r="A96" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B96" s="3">
         <v>45120</v>
@@ -2956,21 +3005,21 @@
         <v>45120</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="10" t="s">
-        <v>104</v>
+      <c r="A97" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B97" s="3">
         <v>45178</v>
@@ -2979,21 +3028,21 @@
         <v>45178</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="9" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B98" s="3">
         <v>44687</v>
@@ -3002,21 +3051,21 @@
         <v>44690</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="9" t="s">
-        <v>106</v>
+    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B99" s="3">
         <v>44722</v>
@@ -3025,21 +3074,21 @@
         <v>44726</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
-      </c>
-      <c r="E99" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="9" t="s">
-        <v>106</v>
+    <row r="100" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B100" s="3">
         <v>45263</v>
@@ -3048,13 +3097,13 @@
         <v>45291</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -3077,6 +3126,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="37a19dcd-4450-492c-a5f9-741922b1ea4f">
@@ -3085,15 +3143,6 @@
     <TaxCatchAll xmlns="662877b1-7ec4-484e-9e5b-6f5513c1becc" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3346,26 +3395,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66AD40E5-45DA-482F-8059-1B642138FAE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638EFDFA-7803-4072-BB6E-E2613CB65B85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="37a19dcd-4450-492c-a5f9-741922b1ea4f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="662877b1-7ec4-484e-9e5b-6f5513c1becc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{638EFDFA-7803-4072-BB6E-E2613CB65B85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66AD40E5-45DA-482F-8059-1B642138FAE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="662877b1-7ec4-484e-9e5b-6f5513c1becc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="37a19dcd-4450-492c-a5f9-741922b1ea4f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
